--- a/public/downloads/Template Files/Aged Receivables Report Result.xlsx
+++ b/public/downloads/Template Files/Aged Receivables Report Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMG\Documents\Task\1-26~Excel Link\Template Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3B4FCB-7B20-4CD8-8A5E-F18C1804DE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA4E419-FC10-400C-B9F7-989A55385C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aged Receivables Report Result" sheetId="1" r:id="rId1"/>
@@ -358,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +386,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -407,13 +414,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1737,21 +1745,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -1760,360 +1768,372 @@
     <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+    <row r="2" spans="1:10" ht="17.25" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
         <f>'Raw Data'!$BF$2</f>
         <v>Ache Co^80</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="1" t="str">
         <f>'Raw Data'!$E$2</f>
         <v>Invoice</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <f>'Raw Data'!$I$2</f>
         <v>3474</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="1" t="str">
         <f>'Raw Data'!$G$2</f>
         <v>2023-03-01 00:00:00</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <f>'Raw Data'!$L$2</f>
         <v>90.9</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <f>'Raw Data'!$M$2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <f>'Raw Data'!$N$2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <f>'Raw Data'!$O$2</f>
         <v>90.9</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <f>'Raw Data'!$P$2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <f>'Raw Data'!$Q$2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="5">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6">
         <f t="shared" ref="E3:J3" si="0">SUBTOTAL(9,E2:E2)</f>
         <v>90.9</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <f t="shared" si="0"/>
         <v>90.9</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+    <row r="4" spans="1:10" ht="17.25" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="str">
         <f>'Raw Data'!$BF$3</f>
         <v>Test 1</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <f>'Raw Data'!$E$3</f>
         <v>Invoice</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <f>'Raw Data'!$I$3</f>
         <v>3505</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="1" t="str">
         <f>'Raw Data'!$G$3</f>
         <v>2023-03-04 00:00:00</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <f>'Raw Data'!$L$3</f>
         <v>2000</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <f>'Raw Data'!$M$3</f>
         <v>0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <f>'Raw Data'!$N$3</f>
         <v>2000</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <f>'Raw Data'!$O$3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <f>'Raw Data'!$P$3</f>
         <v>0</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <f>'Raw Data'!$Q$3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:10" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="5">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="6">
         <f t="shared" ref="E5:J5" si="1">SUBTOTAL(9,E4:E4)</f>
         <v>2000</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+    <row r="6" spans="1:10" ht="17.25" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
         <f>'Raw Data'!$BF$4</f>
         <v>Rasheed Company</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <f>'Raw Data'!$E$4</f>
         <v>Invoice</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <f>'Raw Data'!$I$4</f>
         <v>3501</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="1" t="str">
         <f>'Raw Data'!$G$4</f>
         <v>2023-03-08 00:00:00</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <f>'Raw Data'!$L$4</f>
         <v>880</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <f>'Raw Data'!$M$4</f>
         <v>0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <f>'Raw Data'!$N$4</f>
         <v>880</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <f>'Raw Data'!$O$4</f>
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <f>'Raw Data'!$P$4</f>
         <v>0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <f>'Raw Data'!$Q$4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+    <row r="7" spans="1:10" ht="17.25" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
         <f>'Raw Data'!$BF$5</f>
         <v>Rasheed Company</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <f>'Raw Data'!$E$5</f>
         <v>Invoice</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <f>'Raw Data'!$I$5</f>
         <v>3502</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="1" t="str">
         <f>'Raw Data'!$G$5</f>
         <v>2023-03-08 00:00:00</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <f>'Raw Data'!$L$5</f>
         <v>880</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <f>'Raw Data'!$M$5</f>
         <v>0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <f>'Raw Data'!$N$5</f>
         <v>880</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <f>'Raw Data'!$O$5</f>
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <f>'Raw Data'!$P$5</f>
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <f>'Raw Data'!$Q$5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+    <row r="8" spans="1:10" ht="17.25" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
         <f>'Raw Data'!$BF$6</f>
         <v>Rasheed Company</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <f>'Raw Data'!$E$6</f>
         <v>Invoice</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <f>'Raw Data'!$I$6</f>
         <v>3503</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="1" t="str">
         <f>'Raw Data'!$G$6</f>
         <v>2023-03-08 00:00:00</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <f>'Raw Data'!$L$6</f>
         <v>880</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <f>'Raw Data'!$M$6</f>
         <v>0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <f>'Raw Data'!$N$6</f>
         <v>880</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <f>'Raw Data'!$O$6</f>
         <v>0</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <f>'Raw Data'!$P$6</f>
         <v>0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <f>'Raw Data'!$Q$6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:10" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="5">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="6">
         <f t="shared" ref="E9:J9" si="2">SUBTOTAL(9,E6:E8)</f>
         <v>2640</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <f t="shared" si="2"/>
         <v>2640</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="5">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="6">
         <f t="shared" ref="E10:J10" si="3">SUBTOTAL(9,E2:E8)</f>
         <v>4730.8999999999996</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <f t="shared" si="3"/>
         <v>4640</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <f t="shared" si="3"/>
         <v>90.9</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2555,7 +2575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8701E3F2-FD26-46AB-BE48-90C06003DE9E}">
   <dimension ref="A1:BJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
